--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2186839.317113966</v>
+        <v>2262368.986778772</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>112.5286887194176</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>211.0025011558363</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>8.885767957897624</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.621576176023786</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.13719935906725</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>258.1889455744643</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>13.80890171427166</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.027508828177</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>29.1370725738612</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>140.5217414032909</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>31.28468245238226</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.012178247056682</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>146.1854691670918</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>12.32125544715163</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>14.41955617011595</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>12.68762643336725</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>17.13387053928689</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2494,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.8731478615597</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>66.14085215535493</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.312945786385526</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.66791875440828</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>97.84870229890437</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>29.64881963848326</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3478,10 +3480,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>280.9377015860164</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.54139430664144</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>20.06270080454303</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.33080667553597</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1803.3088759247</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1803.3088759247</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1445.04317731795</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1059.254924719705</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>648.2690199300978</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1780.41262192169</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X2" t="n">
-        <v>1780.41262192169</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>2189.908715988822</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>539.7920585923321</v>
       </c>
       <c r="C4" t="n">
-        <v>541.5898833044448</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>541.5898833044448</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>721.4405234225718</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533935</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.103316533935</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.103316533935</v>
+        <v>1125.437457991306</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>739.6492053930622</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>328.6633006034546</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>314.7398965420455</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1779.584617183058</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C8" t="n">
-        <v>1410.622100242646</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="D8" t="n">
-        <v>1410.622100242646</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1024.833847644402</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>613.8479428547946</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>195.8841347529815</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>195.8841347529815</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.2001955990708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>131.2001955990708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>131.2001955990708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9927747426009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.2001955990708</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,10 +5299,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3450129705744</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3450129705744</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,37 +5506,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
         <v>1332.091733170013</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>834.5937666237584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C19" t="n">
-        <v>834.5937666237584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1373.275958867086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1149.490543656591</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>860.3619048701495</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>605.6774166642626</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>605.6774166642626</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453998</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.242231453998</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,22 +5749,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,25 +5773,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>110.0328757364144</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>110.0328757364144</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W22" t="n">
-        <v>1298.996260473455</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X22" t="n">
-        <v>1281.689320534781</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>110.0328757364144</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5987,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4391.604587469457</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C25" t="n">
-        <v>4222.66840454155</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>4072.551765129214</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546821</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1196.050108673708</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014292</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X25" t="n">
-        <v>4794.045631443227</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y25" t="n">
-        <v>4573.253052299697</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>738.7219969042602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>569.7858139763533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>419.6691745640176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>419.6691745640176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7792270661072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>104.6039053859278</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>1006.27269220504</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6692,13 +6694,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6713,34 +6715,34 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>644.700260475621</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>475.7640775477141</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>475.7640775477141</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>475.7640775477141</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>475.7640775477141</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>307.5887558675347</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.130855347408</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>1047.141304449391</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>826.3487253058607</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6929,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>238.699985503473</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>238.699985503473</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>791.4353891154691</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>536.7509009095822</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>247.3337308726216</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X37" t="n">
-        <v>247.3337308726216</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324571</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324571</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324571</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324571</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1367.575812771704</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.158642734744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>1078.158642734744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y43" t="n">
-        <v>857.3660635912138</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7670,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>785.8784293871479</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>635.7617899748121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>635.7617899748121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>488.8718424769017</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>320.6965207967223</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>170.2785123446656</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>124.3400780863229</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863229</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>282.5108200895343</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>105.9521741567362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>136.2942175710607</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>183.5012538134873</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>135.9278465848451</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.5757848497503</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>8.04766212204359</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>159.5688032336822</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>141.6008825811506</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>133.5789023442196</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>51.06512606863176</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>30.75201340998649</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>119.2650087290529</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>5.299650812560913</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.9521741567361</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>232.074942519285</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>38.08843878873603</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="F2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459072</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
         <v>527889.230645907</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26430,7 +26432,7 @@
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
@@ -26439,25 +26441,25 @@
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7916.731656007487</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354837</v>
+        <v>-266540.8113354838</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.0678790607</v>
+        <v>323427.0678790606</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.0678790609</v>
+        <v>323427.067879061</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571323</v>
+        <v>-97174.86343571304</v>
       </c>
       <c r="F6" t="n">
+        <v>427985.1730411829</v>
+      </c>
+      <c r="G6" t="n">
+        <v>427985.1730411832</v>
+      </c>
+      <c r="H6" t="n">
+        <v>427985.1730411832</v>
+      </c>
+      <c r="I6" t="n">
         <v>427985.1730411828</v>
-      </c>
-      <c r="G6" t="n">
-        <v>427985.1730411827</v>
-      </c>
-      <c r="H6" t="n">
-        <v>427985.173041183</v>
-      </c>
-      <c r="I6" t="n">
-        <v>427985.1730411832</v>
       </c>
       <c r="J6" t="n">
         <v>251561.95384859</v>
       </c>
       <c r="K6" t="n">
-        <v>427985.173041183</v>
+        <v>427985.1730411828</v>
       </c>
       <c r="L6" t="n">
-        <v>427985.173041183</v>
+        <v>427985.1730411829</v>
       </c>
       <c r="M6" t="n">
         <v>293184.1578073459</v>
       </c>
       <c r="N6" t="n">
-        <v>427985.1730411828</v>
+        <v>427985.1730411829</v>
       </c>
       <c r="O6" t="n">
-        <v>427985.1730411829</v>
+        <v>427985.173041183</v>
       </c>
       <c r="P6" t="n">
         <v>427985.1730411829</v>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>301.2554813013774</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>138.2384675615767</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>158.3610531407302</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>218.4135292820605</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.7931707131945</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>65.73382718989285</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3366372357472</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>17.49548950841404</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>325.5459690468218</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.40957484157039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>115.1492801941869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263367</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>434.7644551367891</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262368.986778772</v>
+        <v>2255351.97188706</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>112.5286887194176</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>7.456147600969866</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250819</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>6.621576176023786</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H5" t="n">
-        <v>258.1889455744643</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.027508828177</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>29.1370725738612</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>186.250717003031</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>4.012178247056682</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>119.8057379045302</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>61.81052995517217</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>12.23020458469703</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>14.41955617011595</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.68762643336725</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.8731478615597</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>118.8209292153264</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.66791875440828</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>21.96549637701692</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>29.64881963848326</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>58.4016882597743</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1803.3088759247</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>1803.3088759247</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D2" t="n">
-        <v>1445.04317731795</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="E2" t="n">
-        <v>1059.254924719705</v>
+        <v>1217.618876898984</v>
       </c>
       <c r="F2" t="n">
-        <v>648.2690199300978</v>
+        <v>806.6329721093766</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>388.6691640075635</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>61.47444404356634</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2189.908715988822</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,43 +4409,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.7920585923321</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>721.4405234225718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>721.4405234225718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>721.4405234225718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>721.4405234225718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>721.4405234225718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>721.4405234225718</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.703156598057</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1483.703156598057</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1125.437457991306</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>739.6492053930622</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>328.6633006034546</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>314.7398965420455</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,31 +4664,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.984777118936</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1392.984777118936</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1779.584617183058</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5132,10 +5132,10 @@
         <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705745</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705745</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705745</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3450129705745</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3450129705745</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3450129705745</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5305,19 +5305,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5366,7 +5366,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>328.5881531307909</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>159.651970202884</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>159.651970202884</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,28 +5506,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.6878657662453</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>367.9953723409932</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>367.9953723409932</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>367.9953723409932</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>221.1054248430828</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>221.1054248430828</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1373.275958867086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1149.490543656591</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>860.3619048701495</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>605.6774166642626</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>605.6774166642626</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X19" t="n">
-        <v>377.6878657662453</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y19" t="n">
-        <v>377.6878657662453</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.0328757364144</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0328757364144</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>330.8254548799445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>330.8254548799445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.0328757364144</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,16 +5983,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1196.050108673708</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>972.2646934632137</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>972.2646934632137</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>972.2646934632137</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>972.2646934632137</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6211,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164471</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1006.27269220504</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6715,19 +6715,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1306.193495155475</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6946,43 +6946,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>385.5899330013834</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C37" t="n">
-        <v>385.5899330013834</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D37" t="n">
-        <v>385.5899330013834</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E37" t="n">
-        <v>385.5899330013834</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="F37" t="n">
-        <v>238.699985503473</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>238.699985503473</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>385.5899330013834</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>385.5899330013834</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>385.5899330013834</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954965</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>282.5108200895343</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>98.77891544756461</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>84.623432691397</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>136.6836237828391</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>183.5012538134873</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>135.9278465848451</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>8.04766212204359</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>106.8887261737108</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>133.5789023442196</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>123.4555516459143</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>119.2650087290529</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>108.8451328388535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.4805103800787</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583909</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="E2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="G2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007487</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007487</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007486</v>
-      </c>
       <c r="O4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354838</v>
+        <v>-266540.8113354837</v>
       </c>
       <c r="C6" t="n">
+        <v>323427.0678790611</v>
+      </c>
+      <c r="D6" t="n">
         <v>323427.0678790606</v>
       </c>
-      <c r="D6" t="n">
-        <v>323427.067879061</v>
-      </c>
       <c r="E6" t="n">
-        <v>-97174.86343571304</v>
+        <v>-98149.45469543479</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814615</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411832</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411832</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.1730411828</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.95384859</v>
+        <v>250587.3625888681</v>
       </c>
       <c r="K6" t="n">
-        <v>427985.1730411828</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="L6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="M6" t="n">
-        <v>293184.1578073459</v>
+        <v>292209.566547624</v>
       </c>
       <c r="N6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="O6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="P6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814611</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,10 +26752,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>301.2554813013774</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>144.4751686438914</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>218.4135292820605</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>10.30532391843704</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H5" t="n">
-        <v>65.73382718989285</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>17.49548950841404</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>325.5459690468218</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.97345050525834</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.68503059263367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35734,10 +35734,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255351.97188706</v>
+        <v>2260291.234736092</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.456147600969866</v>
+        <v>35.18155893056283</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.2793294336578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>249.4237682275164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>285.553515925994</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>186.250717003031</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>140.6610716410227</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.8057379045302</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>30.43484953081551</v>
       </c>
       <c r="E16" t="n">
-        <v>61.81052995517217</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>12.23020458469703</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>145.692518422605</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.5269768002232</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>118.8209292153264</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>63.17794444906017</v>
       </c>
     </row>
     <row r="32">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>21.96549637701692</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>31.42218700821035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497228</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1603.407129497228</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1603.407129497228</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>1217.618876898984</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F2" t="n">
-        <v>806.6329721093766</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G2" t="n">
-        <v>388.6691640075635</v>
+        <v>89.47991003305418</v>
       </c>
       <c r="H2" t="n">
-        <v>61.47444404356634</v>
+        <v>89.47991003305418</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
         <v>517.7458231623355</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>760.3446847969191</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>342.3808766951059</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="6">
@@ -4661,7 +4661,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
         <v>74.81188663097703</v>
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,22 +5041,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.5778697504956</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225887</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352015</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.242231453998</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.2263345807353</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>328.5881531307909</v>
+        <v>275.872457296028</v>
       </c>
       <c r="C16" t="n">
-        <v>159.651970202884</v>
+        <v>275.872457296028</v>
       </c>
       <c r="D16" t="n">
-        <v>159.651970202884</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>731.0291971045608</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.2366179610307</v>
+        <v>275.872457296028</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>367.9953723409932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>367.9953723409932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>367.9953723409932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>221.1054248430828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>221.1054248430828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>757.7241344124302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1351.752110535069</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1097.067622329182</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>807.6504522922215</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>579.6609013942042</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.6648329070714</v>
+        <v>213.9110074201073</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>213.9110074201073</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>213.9110074201073</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201073</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839242009</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688125</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799418</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471246</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347414</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609721</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550853</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181246</v>
       </c>
       <c r="X28" t="n">
-        <v>545.6648329070714</v>
+        <v>213.9110074201073</v>
       </c>
       <c r="Y28" t="n">
-        <v>545.6648329070714</v>
+        <v>213.9110074201073</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6931,37 +6931,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>287.5797832182601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>287.5797832182601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>85.04858374801449</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.77891544756461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>118.1806234873968</v>
       </c>
       <c r="E16" t="n">
-        <v>84.623432691397</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>136.6836237828391</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>140.5448339759723</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122270805</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>106.8887261737108</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>155.4067089030346</v>
       </c>
     </row>
     <row r="32">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>123.4555516459143</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>194.2874683808268</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="J2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
@@ -26349,10 +26349,10 @@
         <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26429,37 +26429,37 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007478</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="M4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354837</v>
+        <v>-266540.8113354833</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.0678790611</v>
+        <v>323427.067879061</v>
       </c>
       <c r="D6" t="n">
         <v>323427.0678790606</v>
       </c>
       <c r="E6" t="n">
-        <v>-98149.45469543479</v>
+        <v>-97272.32256168508</v>
       </c>
       <c r="F6" t="n">
-        <v>427010.5817814615</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="G6" t="n">
-        <v>427010.5817814614</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="H6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="I6" t="n">
-        <v>427010.5817814614</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="J6" t="n">
-        <v>250587.3625888681</v>
+        <v>251464.4947226174</v>
       </c>
       <c r="K6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152105</v>
       </c>
       <c r="L6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.713915211</v>
       </c>
       <c r="M6" t="n">
-        <v>292209.566547624</v>
+        <v>293086.6986813734</v>
       </c>
       <c r="N6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152109</v>
       </c>
       <c r="O6" t="n">
-        <v>427010.5817814614</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="P6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152106</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>144.4751686438914</v>
+        <v>116.7497573142984</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.30532391843704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.36925683836313</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>113.9539220428401</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>64.97345050525834</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-8.748206449543158e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.184593495262864e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016557076</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
